--- a/我的创作/财务/房地产/test.xlsx
+++ b/我的创作/财务/房地产/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="8360"/>
+    <workbookView windowWidth="27240" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>总金额</t>
   </si>
@@ -55,9 +55,9 @@
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,38 +68,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,7 +183,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,89 +205,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,169 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,12 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +424,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,41 +479,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,6 +499,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -503,166 +524,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +685,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -995,12 +1013,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
@@ -1033,16 +1051,16 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1063,7 +1081,7 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <f>1.5/100</f>
         <v>0.015</v>
       </c>

--- a/我的创作/财务/房地产/test.xlsx
+++ b/我的创作/财务/房地产/test.xlsx
@@ -53,10 +53,10 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.000000_ ;_ &quot;￥&quot;* \-#,##0.000000_ ;_ &quot;￥&quot;* &quot;-&quot;??.000000_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -69,21 +69,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -92,36 +99,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +138,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,13 +161,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,55 +168,45 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,67 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,109 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,15 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,6 +452,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -471,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,148 +529,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>

--- a/我的创作/财务/房地产/test.xlsx
+++ b/我的创作/财务/房地产/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13080"/>
+    <workbookView windowWidth="27240" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>总金额</t>
   </si>
@@ -44,20 +44,55 @@
   </si>
   <si>
     <t>融资实收款</t>
+  </si>
+  <si>
+    <t>抵押</t>
+  </si>
+  <si>
+    <t>信用1</t>
+  </si>
+  <si>
+    <t>信用2</t>
+  </si>
+  <si>
+    <t>利率1</t>
+  </si>
+  <si>
+    <t>利率2</t>
+  </si>
+  <si>
+    <t>利率3</t>
+  </si>
+  <si>
+    <t>月还款</t>
+  </si>
+  <si>
+    <t>总月还款</t>
+  </si>
+  <si>
+    <t>实际1</t>
+  </si>
+  <si>
+    <t>实际2</t>
+  </si>
+  <si>
+    <t>实际3</t>
+  </si>
+  <si>
+    <t>实际总垫资费用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.000000_ ;_ &quot;￥&quot;* \-#,##0.000000_ ;_ &quot;￥&quot;* &quot;-&quot;??.000000_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000;[Red]0.000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +107,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,17 +147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,15 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -138,30 +180,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,44 +233,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +274,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +364,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,31 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,73 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,22 +466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +490,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,152 +564,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +719,18 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,7 +740,10 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,27 +1065,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="16" style="1"/>
-    <col min="2" max="2" width="14.2857142857143" style="1"/>
+    <col min="1" max="2" width="16" style="1"/>
     <col min="3" max="3" width="12.6428571428571" style="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.1428571428571" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.0714285714286" style="1"/>
     <col min="7" max="7" width="16.2142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.4285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5714285714286" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.7857142857143" style="1"/>
+    <col min="11" max="11" width="16" style="1"/>
+    <col min="12" max="12" width="17.0714285714286" style="4"/>
+    <col min="13" max="13" width="16" style="4"/>
+    <col min="14" max="16" width="9.14285714285714" style="5"/>
+    <col min="17" max="19" width="9.14285714285714" style="6"/>
+    <col min="20" max="20" width="10.1428571428571" style="6" customWidth="1"/>
+    <col min="21" max="23" width="9.14285714285714" style="6"/>
+    <col min="24" max="24" width="17.3571428571429" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,23 +1109,65 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1074,19 +1177,19 @@
       <c r="B2" s="1">
         <v>890000</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <f>9.86/10000</f>
         <v>0.000986</v>
       </c>
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <f>1.5/100</f>
         <v>0.015</v>
       </c>
       <c r="F2" s="1">
-        <f>B2*C2*8</f>
+        <f>B2*C2*D2</f>
         <v>7020.32</v>
       </c>
       <c r="G2" s="1">
@@ -1103,6 +1206,110 @@
       <c r="J2" s="1">
         <f>A2-B2-H2-I2</f>
         <v>1074979.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C3" s="7">
+        <f>9.86/10000</f>
+        <v>0.000986</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3*C3*D3</f>
+        <v>5916</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1">
+        <f>A3*E3</f>
+        <v>20000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="L3" s="10">
+        <v>150000</v>
+      </c>
+      <c r="M3" s="10">
+        <v>50000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.034</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.036</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>K3*N3/12</f>
+        <v>5100</v>
+      </c>
+      <c r="R3" s="6">
+        <f>L3*O3/12</f>
+        <v>450</v>
+      </c>
+      <c r="S3" s="6">
+        <f>M3*P3/12</f>
+        <v>250</v>
+      </c>
+      <c r="T3" s="6">
+        <f>Q3+R3+S3</f>
+        <v>5800</v>
+      </c>
+      <c r="U3" s="6">
+        <f>K3*C3*3</f>
+        <v>5324.4</v>
+      </c>
+      <c r="V3" s="6">
+        <f>L3*C3*3</f>
+        <v>443.7</v>
+      </c>
+      <c r="W3" s="6">
+        <f>M3*C3*3</f>
+        <v>147.9</v>
+      </c>
+      <c r="X3" s="11">
+        <f>U3+V3+W3</f>
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="4" spans="15:20">
+      <c r="O4" s="5">
+        <v>0.035</v>
+      </c>
+      <c r="R4" s="6">
+        <f>L3*O4/12</f>
+        <v>437.5</v>
+      </c>
+      <c r="T4" s="6">
+        <f>Q3+R4+S3</f>
+        <v>5787.5</v>
+      </c>
+    </row>
+    <row r="5" spans="20:20">
+      <c r="T5" s="6">
+        <f>Q3+R4</f>
+        <v>5537.5</v>
+      </c>
+    </row>
+    <row r="6" spans="18:18">
+      <c r="R6" s="6">
+        <f>200000*P3/12</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/财务/房地产/test.xlsx
+++ b/我的创作/财务/房地产/test.xlsx
@@ -1072,7 +1072,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
